--- a/biology/Botanique/Souroubea/Souroubea.xlsx
+++ b/biology/Botanique/Souroubea/Souroubea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Souroubea est un genre de plantes à fleurs de la famille des Marcgraviaceae, comportant 21 à 27 espèces néotropicales valides, et dont l'espèce type est Souroubea guianensis Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « SOUROUBEA. (Tabula 97.)
 CAL. Perianthium penta vel hexa-phyllum ; foliolis coriaceis, ſubrotundis, concavis, bail adnatum. Bracteæ carnoſæ, trilobæ, intra duos lobos concavos, pianos, altero lobo tubuloſo, apice obtuſo, clauſo. 
 COR. Petala quinque, ſubrotunda, carnoſa, reflexa, receptaculo piſtilli inſerta. 
@@ -549,9 +563,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (23 mars 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (23 mars 2022) :
 Souroubea bicolor (Benth.) (C.Mart.) Delponte
 Souroubea corallina (C.Mart.) (Triana &amp; Planch.) Wittm.
 Souroubea crassipes (Triana de Roon
@@ -580,7 +596,7 @@
 Souroubea vallicola Woodson Schery
 Souroubea venosa Schery G.Mey., 1818
 Surubea aubletii G.Mey.,
-Selon World Flora Online (WFO)       (23 mars 2022)[5] :
+Selon World Flora Online (WFO)       (23 mars 2022) :
 Souroubea bicolor (Benth.) Rusby
 Souroubea brachystachya Rusby (Mart.) de Roon
 Souroubea corallina (Mart.) (Triana &amp; Planch.) Wittm.
@@ -602,7 +618,7 @@
 Souroubea sympetala Gilg Woodson ex de Roon
 Souroubea vallicola Woodson Schery
 Souroubea venosa Schery
-Selon Tropicos                                           (23 mars 2022)[2] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 mars 2022) (Attention liste brute contenant possiblement des synonymes) :
 Souroubea amazonica Delpino, 1869
 Souroubea aubletii G. Mey., 1818
 Souroubea auriculata Delpino, 1869
